--- a/REGULAR/RE-ENCODE/re encode/DELA CRUZ, EVANGELINE.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/DELA CRUZ, EVANGELINE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
   <si>
     <t>PERIOD</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>5/30,6/2,5-8/2023</t>
+  </si>
+  <si>
+    <t>06/23,27/2023</t>
   </si>
 </sst>
 </file>
@@ -1426,9 +1429,9 @@
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A87" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A90" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1598,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>195.42</v>
+        <v>197.92</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1605,7 +1608,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>240</v>
+        <v>240.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3649,13 +3652,15 @@
       <c r="B102" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39">
         <v>2</v>
@@ -3692,19 +3697,27 @@
       <c r="A104" s="40">
         <v>45078</v>
       </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
+      <c r="B104" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="39"/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H104" s="39">
+        <v>2</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="20" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">

--- a/REGULAR/RE-ENCODE/re encode/DELA CRUZ, EVANGELINE.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/DELA CRUZ, EVANGELINE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
   <si>
     <t>PERIOD</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>06/23,27/2023</t>
+  </si>
+  <si>
+    <t>7/11-12/2023</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1434,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A90" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1611,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>240.5</v>
+        <v>238.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3723,7 +3726,9 @@
       <c r="A105" s="40">
         <v>45108</v>
       </c>
-      <c r="B105" s="20"/>
+      <c r="B105" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
@@ -3732,10 +3737,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H105" s="39"/>
+      <c r="H105" s="39">
+        <v>2</v>
+      </c>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
+      <c r="K105" s="20" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
